--- a/data/trans_orig/P42A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P42A-Clase-trans_orig.xlsx
@@ -624,19 +624,19 @@
         <v>28216</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>19513</v>
+        <v>19663</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38392</v>
+        <v>38480</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2347865306668867</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.162368749571649</v>
+        <v>0.1636127613365875</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3194570846814503</v>
+        <v>0.3201925680926975</v>
       </c>
     </row>
     <row r="5">
@@ -653,19 +653,19 @@
         <v>18350</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>11734</v>
+        <v>11199</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>27775</v>
+        <v>27975</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1526856463895438</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09763358221347873</v>
+        <v>0.0931850053601351</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2311138114812874</v>
+        <v>0.2327769271751699</v>
       </c>
     </row>
     <row r="6">
@@ -682,19 +682,19 @@
         <v>31369</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>22551</v>
+        <v>21930</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>42239</v>
+        <v>40546</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2610205060568686</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.187641548879093</v>
+        <v>0.1824748681746765</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3514657094752681</v>
+        <v>0.3373823048151513</v>
       </c>
     </row>
     <row r="7">
@@ -711,19 +711,19 @@
         <v>24668</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>15918</v>
+        <v>16227</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>34232</v>
+        <v>34828</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2052586870449036</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1324559182362173</v>
+        <v>0.1350253269952309</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2848378177779792</v>
+        <v>0.2898029986130755</v>
       </c>
     </row>
     <row r="8">
@@ -740,19 +740,19 @@
         <v>17576</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>10797</v>
+        <v>10909</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>25376</v>
+        <v>26987</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1462486298417973</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08984335338099494</v>
+        <v>0.09077705494131594</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2111551817024568</v>
+        <v>0.2245564124757395</v>
       </c>
     </row>
     <row r="9">
@@ -802,19 +802,19 @@
         <v>23158</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>14909</v>
+        <v>15745</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32322</v>
+        <v>32845</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1822894885797133</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.117355526157129</v>
+        <v>0.1239415166431266</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.254426164804301</v>
+        <v>0.2585399550334752</v>
       </c>
     </row>
     <row r="11">
@@ -831,19 +831,19 @@
         <v>31713</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>23200</v>
+        <v>22365</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>41803</v>
+        <v>42011</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2496308334195921</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1826202719528278</v>
+        <v>0.1760464763763707</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3290544574866547</v>
+        <v>0.3306931512475011</v>
       </c>
     </row>
     <row r="12">
@@ -860,19 +860,19 @@
         <v>20080</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>13300</v>
+        <v>12549</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>29640</v>
+        <v>29455</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.158062635578398</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1046937568028494</v>
+        <v>0.09877773499390682</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2333154835557601</v>
+        <v>0.2318581938960391</v>
       </c>
     </row>
     <row r="13">
@@ -889,19 +889,19 @@
         <v>23377</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>15682</v>
+        <v>15385</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>34210</v>
+        <v>33554</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1840143812527789</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1234462376013649</v>
+        <v>0.1211072357551739</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2692858088078967</v>
+        <v>0.2641202531994543</v>
       </c>
     </row>
     <row r="14">
@@ -918,19 +918,19 @@
         <v>28711</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>20156</v>
+        <v>20224</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>39777</v>
+        <v>39365</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2260026611695177</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1586634955133211</v>
+        <v>0.159197362600052</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3131072372786411</v>
+        <v>0.3098665685323354</v>
       </c>
     </row>
     <row r="15">
@@ -980,19 +980,19 @@
         <v>13618</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>7961</v>
+        <v>7497</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>20940</v>
+        <v>20610</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.260333212819177</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1521927018993955</v>
+        <v>0.1433144852324899</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4003122159351729</v>
+        <v>0.3939987215404732</v>
       </c>
     </row>
     <row r="17">
@@ -1009,19 +1009,19 @@
         <v>10885</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>5731</v>
+        <v>5953</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>17251</v>
+        <v>17626</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2080808672255833</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1095692577159985</v>
+        <v>0.1138124672957856</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3297819513371809</v>
+        <v>0.3369592466419627</v>
       </c>
     </row>
     <row r="18">
@@ -1038,19 +1038,19 @@
         <v>13205</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>7603</v>
+        <v>7829</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>19808</v>
+        <v>20950</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2524415201442145</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1453497240278024</v>
+        <v>0.1496740316338737</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3786672080479877</v>
+        <v>0.4005095745993463</v>
       </c>
     </row>
     <row r="19">
@@ -1067,19 +1067,19 @@
         <v>9053</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>4816</v>
+        <v>4767</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>15464</v>
+        <v>15532</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1730737962479531</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.09207729499168163</v>
+        <v>0.09112967875109743</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2956362594017822</v>
+        <v>0.2969265922503335</v>
       </c>
     </row>
     <row r="20">
@@ -1096,19 +1096,19 @@
         <v>5548</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>2059</v>
+        <v>1978</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>12335</v>
+        <v>11968</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1060706035630721</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03935297728605193</v>
+        <v>0.03781883221515594</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2358164713205818</v>
+        <v>0.2287922463643975</v>
       </c>
     </row>
     <row r="21">
@@ -1158,19 +1158,19 @@
         <v>57520</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>44572</v>
+        <v>44818</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>71190</v>
+        <v>72401</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2452853010318722</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1900730022383979</v>
+        <v>0.1911181602474207</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3035775788443403</v>
+        <v>0.3087440878523454</v>
       </c>
     </row>
     <row r="23">
@@ -1187,19 +1187,19 @@
         <v>45569</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34509</v>
+        <v>34651</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>58853</v>
+        <v>59326</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.194322883732739</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1471587837269336</v>
+        <v>0.1477649730045524</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2509720118923111</v>
+        <v>0.2529888763880654</v>
       </c>
     </row>
     <row r="24">
@@ -1216,19 +1216,19 @@
         <v>40191</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>29793</v>
+        <v>30242</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>52954</v>
+        <v>53994</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1713875316037195</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.1270479222208542</v>
+        <v>0.1289643193899644</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2258129073806465</v>
+        <v>0.2302489898585301</v>
       </c>
     </row>
     <row r="25">
@@ -1245,19 +1245,19 @@
         <v>53997</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>40676</v>
+        <v>40709</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>66480</v>
+        <v>67627</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2302613490659366</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1734589307725291</v>
+        <v>0.1735964297827672</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2834959191923371</v>
+        <v>0.2883869698226837</v>
       </c>
     </row>
     <row r="26">
@@ -1274,19 +1274,19 @@
         <v>37226</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>27327</v>
+        <v>27144</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>50043</v>
+        <v>48681</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1587429345657328</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1165315887041526</v>
+        <v>0.115749548764472</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2134015453795669</v>
+        <v>0.2075927471641361</v>
       </c>
     </row>
     <row r="27">
@@ -1336,19 +1336,19 @@
         <v>40195</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>30215</v>
+        <v>29171</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>53716</v>
+        <v>52785</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.212323229653955</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1596037219395716</v>
+        <v>0.1540906621809193</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.2837437397863452</v>
+        <v>0.2788254102932677</v>
       </c>
     </row>
     <row r="29">
@@ -1365,19 +1365,19 @@
         <v>32787</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>24195</v>
+        <v>23645</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>44458</v>
+        <v>44861</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.1731917983326368</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.1278038179800511</v>
+        <v>0.1249007929579064</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.2348373121459343</v>
+        <v>0.2369699951891908</v>
       </c>
     </row>
     <row r="30">
@@ -1394,19 +1394,19 @@
         <v>58375</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>45613</v>
+        <v>46650</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>71748</v>
+        <v>73023</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3083558240584507</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2409416599095205</v>
+        <v>0.2464175095909319</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3789957232327846</v>
+        <v>0.3857300634583124</v>
       </c>
     </row>
     <row r="31">
@@ -1423,19 +1423,19 @@
         <v>31204</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>22091</v>
+        <v>21414</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>43382</v>
+        <v>41536</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.164827098910822</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1166908056162094</v>
+        <v>0.1131123204248561</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2291586537399126</v>
+        <v>0.2194062403947468</v>
       </c>
     </row>
     <row r="32">
@@ -1452,19 +1452,19 @@
         <v>26750</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>18205</v>
+        <v>18097</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>36608</v>
+        <v>37775</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1413020490441355</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.0961656724544572</v>
+        <v>0.09559297943045204</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1933721394157504</v>
+        <v>0.199537877097347</v>
       </c>
     </row>
     <row r="33">
@@ -1514,19 +1514,19 @@
         <v>80825</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>64265</v>
+        <v>65010</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>97644</v>
+        <v>97162</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.2209700507727788</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1756955210861383</v>
+        <v>0.1777310225956685</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.2669515832398849</v>
+        <v>0.2656341577085883</v>
       </c>
     </row>
     <row r="35">
@@ -1543,19 +1543,19 @@
         <v>65348</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>51491</v>
+        <v>52143</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>81731</v>
+        <v>81308</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1786549432466326</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.140771571316701</v>
+        <v>0.142554886872066</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.2234457098609997</v>
+        <v>0.2222897678871759</v>
       </c>
     </row>
     <row r="36">
@@ -1572,19 +1572,19 @@
         <v>89684</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>73479</v>
+        <v>74534</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>105934</v>
+        <v>105056</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2451890724242583</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2008865088523723</v>
+        <v>0.2037704453779003</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2896139083491767</v>
+        <v>0.2872161802298376</v>
       </c>
     </row>
     <row r="37">
@@ -1601,19 +1601,19 @@
         <v>71674</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>57310</v>
+        <v>58151</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>87797</v>
+        <v>88080</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1959510174104745</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1566817329001234</v>
+        <v>0.1589807508122861</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2400297800650874</v>
+        <v>0.2408040649430264</v>
       </c>
     </row>
     <row r="38">
@@ -1630,19 +1630,19 @@
         <v>58244</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>45292</v>
+        <v>45474</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>73710</v>
+        <v>72958</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1592349161458558</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.123825943394762</v>
+        <v>0.1243223231329118</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2015165778869706</v>
+        <v>0.1994621869699983</v>
       </c>
     </row>
     <row r="39">
@@ -1692,19 +1692,19 @@
         <v>243533</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>213059</v>
+        <v>218962</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>269907</v>
+        <v>272386</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.2236057494378264</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.1956260292164843</v>
+        <v>0.2010458575576597</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.2478223654382526</v>
+        <v>0.2500977936017225</v>
       </c>
     </row>
     <row r="41">
@@ -1721,19 +1721,19 @@
         <v>204651</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>178701</v>
+        <v>178380</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>232849</v>
+        <v>229932</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.187905491912048</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.1640791271294593</v>
+        <v>0.1637845663331707</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.2137960253236673</v>
+        <v>0.2111176720255953</v>
       </c>
     </row>
     <row r="42">
@@ -1750,19 +1750,19 @@
         <v>252904</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>226864</v>
+        <v>225383</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>280524</v>
+        <v>280929</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2322107671915421</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2083012535456598</v>
+        <v>0.2069410734909823</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2575700178494156</v>
+        <v>0.2579424372001012</v>
       </c>
     </row>
     <row r="43">
@@ -1779,19 +1779,19 @@
         <v>213973</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>186089</v>
+        <v>189253</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>242049</v>
+        <v>241217</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.1964644534671008</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1708620159824804</v>
+        <v>0.1737679702142075</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2222434497779749</v>
+        <v>0.2214795663153391</v>
       </c>
     </row>
     <row r="44">
@@ -1808,19 +1808,19 @@
         <v>174055</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>151254</v>
+        <v>150981</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>202901</v>
+        <v>198500</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1598135379914828</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1388779340566831</v>
+        <v>0.1386267893467761</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1862990693324026</v>
+        <v>0.1822578544695352</v>
       </c>
     </row>
     <row r="45">
@@ -1990,19 +1990,19 @@
         <v>16275</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>9851</v>
+        <v>9155</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26570</v>
+        <v>25853</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.05389667134415049</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.03262436215487621</v>
+        <v>0.0303186263784725</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.08799039390780526</v>
+        <v>0.08561825955694891</v>
       </c>
     </row>
     <row r="5">
@@ -2019,19 +2019,19 @@
         <v>32996</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>22551</v>
+        <v>22012</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>46298</v>
+        <v>46258</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1092740637304495</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.07468141448317797</v>
+        <v>0.0728970126161146</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1533255611050575</v>
+        <v>0.153191101961617</v>
       </c>
     </row>
     <row r="6">
@@ -2048,19 +2048,19 @@
         <v>92359</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>76346</v>
+        <v>76366</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>110490</v>
+        <v>108903</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3058635381725569</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2528353012321928</v>
+        <v>0.2529008265551621</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3659087266166141</v>
+        <v>0.3606541487955791</v>
       </c>
     </row>
     <row r="7">
@@ -2077,19 +2077,19 @@
         <v>92052</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>74871</v>
+        <v>75726</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110314</v>
+        <v>109824</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3048473937616418</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2479491112923838</v>
+        <v>0.2507800185501069</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3653267615701917</v>
+        <v>0.363703228024793</v>
       </c>
     </row>
     <row r="8">
@@ -2106,19 +2106,19 @@
         <v>68279</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>53498</v>
+        <v>54463</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>84633</v>
+        <v>83802</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2261183329912013</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1771697549301722</v>
+        <v>0.1803655373161227</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.28027728602151</v>
+        <v>0.2775257786468076</v>
       </c>
     </row>
     <row r="9">
@@ -2168,19 +2168,19 @@
         <v>32851</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>23175</v>
+        <v>22590</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>45512</v>
+        <v>47875</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1042246907592477</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.07352442185063246</v>
+        <v>0.07167046814888557</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.144394707654047</v>
+        <v>0.1518901886247336</v>
       </c>
     </row>
     <row r="11">
@@ -2197,19 +2197,19 @@
         <v>30831</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>20928</v>
+        <v>20520</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>42923</v>
+        <v>40702</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.09781572806676538</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.06639686501117448</v>
+        <v>0.06510156162515185</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1361801382840409</v>
+        <v>0.1291320568310858</v>
       </c>
     </row>
     <row r="12">
@@ -2226,19 +2226,19 @@
         <v>114605</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>96338</v>
+        <v>95681</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>132054</v>
+        <v>133510</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3635989867696226</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3056461895275314</v>
+        <v>0.3035624491047284</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4189608495667159</v>
+        <v>0.4235778179160072</v>
       </c>
     </row>
     <row r="13">
@@ -2255,19 +2255,19 @@
         <v>85627</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71157</v>
+        <v>68864</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>104314</v>
+        <v>104217</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2716641042830389</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.22575617289912</v>
+        <v>0.2184810543617057</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3309493747518132</v>
+        <v>0.3306416169991345</v>
       </c>
     </row>
     <row r="14">
@@ -2284,19 +2284,19 @@
         <v>51281</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>38266</v>
+        <v>38382</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>66235</v>
+        <v>67210</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1626964901213254</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1214040628809468</v>
+        <v>0.1217707927275266</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2101395134757127</v>
+        <v>0.2132334922136221</v>
       </c>
     </row>
     <row r="15">
@@ -2346,19 +2346,19 @@
         <v>22566</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>14493</v>
+        <v>14293</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>33483</v>
+        <v>33640</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.09405799638522097</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.06041168500925582</v>
+        <v>0.05957536695200082</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1395635565241672</v>
+        <v>0.1402184567217467</v>
       </c>
     </row>
     <row r="17">
@@ -2375,19 +2375,19 @@
         <v>49877</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>37276</v>
+        <v>38780</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>63886</v>
+        <v>63634</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2078962564066569</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.155375670249875</v>
+        <v>0.1616415710080819</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2662900116501052</v>
+        <v>0.2652391639962425</v>
       </c>
     </row>
     <row r="18">
@@ -2404,19 +2404,19 @@
         <v>70131</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>56517</v>
+        <v>55906</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>84050</v>
+        <v>85523</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2923195747970074</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2355756055007679</v>
+        <v>0.2330261143622042</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3503378085948395</v>
+        <v>0.3564761195987085</v>
       </c>
     </row>
     <row r="19">
@@ -2433,19 +2433,19 @@
         <v>59923</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>46168</v>
+        <v>46369</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>73661</v>
+        <v>73835</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2497721429384261</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1924365290953964</v>
+        <v>0.193276124532783</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3070352366097034</v>
+        <v>0.3077608331719079</v>
       </c>
     </row>
     <row r="20">
@@ -2462,19 +2462,19 @@
         <v>37415</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>26946</v>
+        <v>25906</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>49542</v>
+        <v>49350</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1559540294726886</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.112317125370514</v>
+        <v>0.1079797454725063</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2065015692622181</v>
+        <v>0.20569937600498</v>
       </c>
     </row>
     <row r="21">
@@ -2524,19 +2524,19 @@
         <v>66732</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>51873</v>
+        <v>50891</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>84556</v>
+        <v>82180</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.09764716966009823</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.07590441022206029</v>
+        <v>0.07446765351426345</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1237289576297702</v>
+        <v>0.1202522004199313</v>
       </c>
     </row>
     <row r="23">
@@ -2553,19 +2553,19 @@
         <v>116081</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>95683</v>
+        <v>96116</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>138942</v>
+        <v>136866</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1698584060977726</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.140011161281465</v>
+        <v>0.1406444659387491</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.203311082719679</v>
+        <v>0.2002733078518622</v>
       </c>
     </row>
     <row r="24">
@@ -2582,19 +2582,19 @@
         <v>205302</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>179393</v>
+        <v>180521</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>227733</v>
+        <v>230249</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3004138234486932</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.262501282941313</v>
+        <v>0.2641526393162756</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3332373104527515</v>
+        <v>0.3369188907484257</v>
       </c>
     </row>
     <row r="25">
@@ -2611,19 +2611,19 @@
         <v>155171</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>133588</v>
+        <v>133725</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>177808</v>
+        <v>180201</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2270586775768722</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1954764293109173</v>
+        <v>0.1956774306614975</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2601820068433867</v>
+        <v>0.2636839132471193</v>
       </c>
     </row>
     <row r="26">
@@ -2640,19 +2640,19 @@
         <v>140111</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>118970</v>
+        <v>121588</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>163791</v>
+        <v>163607</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2050219232165638</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1740865361517909</v>
+        <v>0.1779175255299861</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.239672484279392</v>
+        <v>0.2394029092251664</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>64846</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>50065</v>
+        <v>50513</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>80372</v>
+        <v>82592</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.09750085379561838</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.07527601737978519</v>
+        <v>0.07595041018870094</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.120844097056728</v>
+        <v>0.1241820953593495</v>
       </c>
     </row>
     <row r="29">
@@ -2731,19 +2731,19 @@
         <v>177616</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>156806</v>
+        <v>155482</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>204350</v>
+        <v>203400</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2670568941333005</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2357681361924582</v>
+        <v>0.2337771867118113</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3072544264824886</v>
+        <v>0.3058262262827492</v>
       </c>
     </row>
     <row r="30">
@@ -2760,19 +2760,19 @@
         <v>208610</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>183550</v>
+        <v>182068</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>234361</v>
+        <v>234260</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.3136592303646445</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2759796499103006</v>
+        <v>0.2737518424026206</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3523780591252919</v>
+        <v>0.3522259406337594</v>
       </c>
     </row>
     <row r="31">
@@ -2789,19 +2789,19 @@
         <v>111138</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>93096</v>
+        <v>92582</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>133137</v>
+        <v>132554</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1671027585296179</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1399761102019959</v>
+        <v>0.1392030810443138</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.2001805561710824</v>
+        <v>0.1993038389758532</v>
       </c>
     </row>
     <row r="32">
@@ -2818,19 +2818,19 @@
         <v>102876</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>84199</v>
+        <v>85356</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>123179</v>
+        <v>123304</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1546802631768188</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1265986412972014</v>
+        <v>0.1283390913255577</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1852076073708926</v>
+        <v>0.1853964043421728</v>
       </c>
     </row>
     <row r="33">
@@ -2880,19 +2880,19 @@
         <v>124966</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>105899</v>
+        <v>105016</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>149259</v>
+        <v>148490</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1435640863750563</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1216602226800148</v>
+        <v>0.1206450025226523</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1714729137775388</v>
+        <v>0.170589429435595</v>
       </c>
     </row>
     <row r="35">
@@ -2909,19 +2909,19 @@
         <v>267600</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>241387</v>
+        <v>240914</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>295499</v>
+        <v>294536</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3074268210442966</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.2773128993050928</v>
+        <v>0.2767686121434323</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3394784812056949</v>
+        <v>0.3383716594734922</v>
       </c>
     </row>
     <row r="36">
@@ -2938,19 +2938,19 @@
         <v>220843</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>193974</v>
+        <v>193178</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>245760</v>
+        <v>247782</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2537114712266845</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2228432627738751</v>
+        <v>0.2219288705885998</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2823368723474371</v>
+        <v>0.2846588914726951</v>
       </c>
     </row>
     <row r="37">
@@ -2967,19 +2967,19 @@
         <v>153172</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>130943</v>
+        <v>129868</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>176690</v>
+        <v>178480</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.175968028054665</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1504315877983997</v>
+        <v>0.1491956941909174</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.2029863955139601</v>
+        <v>0.2050427144466759</v>
       </c>
     </row>
     <row r="38">
@@ -2996,19 +2996,19 @@
         <v>103871</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>84919</v>
+        <v>86193</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>124292</v>
+        <v>124393</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1193295932992977</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.09755702168059782</v>
+        <v>0.09902113398955074</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1427898658316505</v>
+        <v>0.1429066522593471</v>
       </c>
     </row>
     <row r="39">
@@ -3058,19 +3058,19 @@
         <v>328235</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>296612</v>
+        <v>296005</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>362262</v>
+        <v>361474</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.1067083913327335</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.09642779457886189</v>
+        <v>0.09623044355238967</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1177703619558049</v>
+        <v>0.1175144332148085</v>
       </c>
     </row>
     <row r="41">
@@ -3087,19 +3087,19 @@
         <v>675000</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>630365</v>
+        <v>632292</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>728740</v>
+        <v>724028</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2194409760808619</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2049303135507635</v>
+        <v>0.2055565405351677</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.23691174620029</v>
+        <v>0.2353797528914293</v>
       </c>
     </row>
     <row r="42">
@@ -3116,19 +3116,19 @@
         <v>911849</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>862612</v>
+        <v>858712</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>965550</v>
+        <v>968546</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.296440010282789</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.28043301239705</v>
+        <v>0.279165323806054</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3138979833237198</v>
+        <v>0.314871959939494</v>
       </c>
     </row>
     <row r="43">
@@ -3145,19 +3145,19 @@
         <v>657082</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>604882</v>
+        <v>610675</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>704498</v>
+        <v>710502</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.2136159007057184</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1966458622677226</v>
+        <v>0.1985289810608168</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2290306044475099</v>
+        <v>0.2309826070869635</v>
       </c>
     </row>
     <row r="44">
@@ -3174,19 +3174,19 @@
         <v>503832</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>462500</v>
+        <v>458281</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>544710</v>
+        <v>547116</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1637947215978973</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1503576397753974</v>
+        <v>0.1489860503720737</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1770840402128318</v>
+        <v>0.1778661422513157</v>
       </c>
     </row>
     <row r="45">
@@ -3356,19 +3356,19 @@
         <v>15781</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8401</v>
+        <v>9089</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>25804</v>
+        <v>27009</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.04836589446226065</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02574691428873905</v>
+        <v>0.02785414201629642</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07908366002968256</v>
+        <v>0.08277579766195327</v>
       </c>
     </row>
     <row r="5">
@@ -3385,19 +3385,19 @@
         <v>45338</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>33137</v>
+        <v>33658</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>61061</v>
+        <v>60038</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1389489625716636</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1015572430712593</v>
+        <v>0.1031518488656591</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.187136940470838</v>
+        <v>0.1840015232593919</v>
       </c>
     </row>
     <row r="6">
@@ -3414,19 +3414,19 @@
         <v>123413</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>107065</v>
+        <v>105777</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>141993</v>
+        <v>143533</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.3782289672065805</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.3281278246104095</v>
+        <v>0.3241811715881258</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.4351726733720455</v>
+        <v>0.4398927125860781</v>
       </c>
     </row>
     <row r="7">
@@ -3443,19 +3443,19 @@
         <v>90243</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>74263</v>
+        <v>74675</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>108642</v>
+        <v>106939</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2765715693318235</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2275980595931532</v>
+        <v>0.2288604527541233</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.332960398084068</v>
+        <v>0.3277397743108665</v>
       </c>
     </row>
     <row r="8">
@@ -3472,19 +3472,19 @@
         <v>51516</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>38094</v>
+        <v>39717</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>65103</v>
+        <v>65256</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1578846064276718</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1167473081489127</v>
+        <v>0.1217214953693278</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1995251762189684</v>
+        <v>0.1999934904591687</v>
       </c>
     </row>
     <row r="9">
@@ -3534,19 +3534,19 @@
         <v>15470</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8289</v>
+        <v>8712</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>25818</v>
+        <v>25119</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04389220934920589</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02351749638545061</v>
+        <v>0.0247199849437891</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07325480950271289</v>
+        <v>0.07127005661643342</v>
       </c>
     </row>
     <row r="11">
@@ -3563,19 +3563,19 @@
         <v>48911</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>35525</v>
+        <v>37158</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>62922</v>
+        <v>63192</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1387771352837774</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1007961572744694</v>
+        <v>0.1054295593536064</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1785288288408427</v>
+        <v>0.1792941998423749</v>
       </c>
     </row>
     <row r="12">
@@ -3592,19 +3592,19 @@
         <v>140504</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>121915</v>
+        <v>121853</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>159229</v>
+        <v>160107</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3986526390662513</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.345912195818364</v>
+        <v>0.3457345042304307</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4517819710353791</v>
+        <v>0.4542728279390187</v>
       </c>
     </row>
     <row r="13">
@@ -3621,19 +3621,19 @@
         <v>87596</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>71487</v>
+        <v>71037</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>103592</v>
+        <v>104002</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2485382621662911</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2028323807526824</v>
+        <v>0.2015547877253767</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2939230440337973</v>
+        <v>0.2950874463613032</v>
       </c>
     </row>
     <row r="14">
@@ -3650,19 +3650,19 @@
         <v>59965</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>46779</v>
+        <v>46781</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>74463</v>
+        <v>75532</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1701397541344744</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.132725344539757</v>
+        <v>0.132733272306935</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2112743529679192</v>
+        <v>0.214309297341829</v>
       </c>
     </row>
     <row r="15">
@@ -3712,19 +3712,19 @@
         <v>12134</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>6005</v>
+        <v>5754</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>21746</v>
+        <v>21543</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.07799313047891272</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03860092658137495</v>
+        <v>0.03698398442573698</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.139776120205183</v>
+        <v>0.1384740953657932</v>
       </c>
     </row>
     <row r="17">
@@ -3741,19 +3741,19 @@
         <v>38327</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>27798</v>
+        <v>27027</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50194</v>
+        <v>50542</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2463563418816765</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.178679141531937</v>
+        <v>0.1737229064187251</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.3226341169252392</v>
+        <v>0.3248752771367655</v>
       </c>
     </row>
     <row r="18">
@@ -3770,19 +3770,19 @@
         <v>59184</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>47104</v>
+        <v>46568</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>72632</v>
+        <v>71926</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3804197801576567</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.3027719178871622</v>
+        <v>0.2993271412564634</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.466862243415786</v>
+        <v>0.4623230971673762</v>
       </c>
     </row>
     <row r="19">
@@ -3799,19 +3799,19 @@
         <v>26197</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17839</v>
+        <v>16860</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38795</v>
+        <v>36695</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1683863743052008</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1146624163301086</v>
+        <v>0.1083698717177854</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2493643308309208</v>
+        <v>0.2358646470978256</v>
       </c>
     </row>
     <row r="20">
@@ -3828,19 +3828,19 @@
         <v>19734</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>11781</v>
+        <v>12550</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>28073</v>
+        <v>29929</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1268443731765533</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.07572483119854476</v>
+        <v>0.08067017651632713</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.180444406233888</v>
+        <v>0.1923743706263171</v>
       </c>
     </row>
     <row r="21">
@@ -3890,19 +3890,19 @@
         <v>39564</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>28977</v>
+        <v>28967</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53491</v>
+        <v>53866</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.05340284450611026</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.03911285416312638</v>
+        <v>0.03909960639477075</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.07220244713906206</v>
+        <v>0.07270784830343807</v>
       </c>
     </row>
     <row r="23">
@@ -3919,19 +3919,19 @@
         <v>153234</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>131605</v>
+        <v>131169</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>177091</v>
+        <v>179640</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2068345645168075</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.1776395051244618</v>
+        <v>0.1770517475402449</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2390367123951285</v>
+        <v>0.2424770199388939</v>
       </c>
     </row>
     <row r="24">
@@ -3948,19 +3948,19 @@
         <v>282519</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>255603</v>
+        <v>258326</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>309857</v>
+        <v>312020</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3813421227210845</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.3450109898160817</v>
+        <v>0.3486874182454819</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.4182434658576147</v>
+        <v>0.4211626193158012</v>
       </c>
     </row>
     <row r="25">
@@ -3977,19 +3977,19 @@
         <v>155341</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>135925</v>
+        <v>134451</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>180897</v>
+        <v>179682</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2096778598655828</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1834707249749152</v>
+        <v>0.1814805101181443</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2441735646459151</v>
+        <v>0.2425331687019602</v>
       </c>
     </row>
     <row r="26">
@@ -4006,19 +4006,19 @@
         <v>110197</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>90275</v>
+        <v>90456</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>132261</v>
+        <v>132795</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.148742608390415</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1218529720833952</v>
+        <v>0.1220974163358886</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1785252985990016</v>
+        <v>0.1792462648332731</v>
       </c>
     </row>
     <row r="27">
@@ -4068,19 +4068,19 @@
         <v>66839</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>51597</v>
+        <v>52877</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>82847</v>
+        <v>84537</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.1048611363711738</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.08094751893930728</v>
+        <v>0.08295616030142441</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.1299750905988583</v>
+        <v>0.1326268755555533</v>
       </c>
     </row>
     <row r="29">
@@ -4097,19 +4097,19 @@
         <v>185446</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>161644</v>
+        <v>161959</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>209156</v>
+        <v>208169</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.2909387698874185</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.2535955982243509</v>
+        <v>0.2540897418595648</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.3281362030371632</v>
+        <v>0.3265866927197775</v>
       </c>
     </row>
     <row r="30">
@@ -4126,19 +4126,19 @@
         <v>227072</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>203467</v>
+        <v>203190</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>249956</v>
+        <v>252107</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.356243366501809</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.3192097112428326</v>
+        <v>0.3187753804266127</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3921443540913008</v>
+        <v>0.3955200050348642</v>
       </c>
     </row>
     <row r="31">
@@ -4155,19 +4155,19 @@
         <v>90956</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>74505</v>
+        <v>74643</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>108616</v>
+        <v>111623</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1426962746704647</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1168883252755231</v>
+        <v>0.1171038878247694</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1704029333007738</v>
+        <v>0.1751205905093007</v>
       </c>
     </row>
     <row r="32">
@@ -4184,19 +4184,19 @@
         <v>67094</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>51841</v>
+        <v>52460</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>83515</v>
+        <v>83014</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.105260452569134</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.08133169216062834</v>
+        <v>0.08230290999892001</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1310235126735945</v>
+        <v>0.13023683074939</v>
       </c>
     </row>
     <row r="33">
@@ -4246,19 +4246,19 @@
         <v>101031</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>82979</v>
+        <v>80408</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>122483</v>
+        <v>123670</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.120717853968751</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.0991480163592392</v>
+        <v>0.09607611587831325</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1463499074378882</v>
+        <v>0.14776798874282</v>
       </c>
     </row>
     <row r="35">
@@ -4275,19 +4275,19 @@
         <v>272051</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>243343</v>
+        <v>243325</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>298769</v>
+        <v>298022</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.3250629639068819</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.290760007494749</v>
+        <v>0.2907395557477381</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.3569866298694387</v>
+        <v>0.3560947862948431</v>
       </c>
     </row>
     <row r="36">
@@ -4304,19 +4304,19 @@
         <v>266297</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>239940</v>
+        <v>241384</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>292732</v>
+        <v>295799</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3181871462702424</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2866946887383117</v>
+        <v>0.2884203356396378</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3497739342423916</v>
+        <v>0.3534385149255274</v>
       </c>
     </row>
     <row r="37">
@@ -4333,19 +4333,19 @@
         <v>112264</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>93966</v>
+        <v>93802</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>134559</v>
+        <v>134552</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1341392489446133</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1122763737060713</v>
+        <v>0.1120803365175192</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1607792287594933</v>
+        <v>0.1607707205437054</v>
       </c>
     </row>
     <row r="38">
@@ -4362,19 +4362,19 @@
         <v>85276</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>68556</v>
+        <v>68186</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>106104</v>
+        <v>103903</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1018927869095114</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.08191442980934814</v>
+        <v>0.08147287461041236</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1267795130848796</v>
+        <v>0.124149447908044</v>
       </c>
     </row>
     <row r="39">
@@ -4424,19 +4424,19 @@
         <v>250819</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>220052</v>
+        <v>221038</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>285048</v>
+        <v>285845</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.08224935954251227</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.07216029093079028</v>
+        <v>0.07248359167725973</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.09347377134679859</v>
+        <v>0.09373536213601054</v>
       </c>
     </row>
     <row r="41">
@@ -4453,19 +4453,19 @@
         <v>743308</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>694023</v>
+        <v>697157</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>795511</v>
+        <v>793800</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.2437481718790973</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.2275864512844525</v>
+        <v>0.2286141390211308</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.260866849600235</v>
+        <v>0.2603056278503144</v>
       </c>
     </row>
     <row r="42">
@@ -4482,19 +4482,19 @@
         <v>1098988</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>1044487</v>
+        <v>1046128</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>1155265</v>
+        <v>1149382</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.3603838858016293</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.3425118206358255</v>
+        <v>0.3430497851298907</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.3788384562026531</v>
+        <v>0.3769094232263913</v>
       </c>
     </row>
     <row r="43">
@@ -4511,19 +4511,19 @@
         <v>562596</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>519771</v>
+        <v>522271</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>606319</v>
+        <v>608328</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.184488377617555</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1704450488500107</v>
+        <v>0.1712648074171916</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.198826387878445</v>
+        <v>0.199484928030011</v>
       </c>
     </row>
     <row r="44">
@@ -4540,19 +4540,19 @@
         <v>393782</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>358580</v>
+        <v>357174</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>433952</v>
+        <v>434499</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1291302051592061</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1175866854078139</v>
+        <v>0.1171256714893408</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1423031752880253</v>
+        <v>0.142482428821845</v>
       </c>
     </row>
     <row r="45">
@@ -4722,19 +4722,19 @@
         <v>3679</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1319</v>
+        <v>1476</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>8375</v>
+        <v>8591</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01218820253341118</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004371423698771899</v>
+        <v>0.004888858327489177</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02774785152393147</v>
+        <v>0.0284604750235201</v>
       </c>
     </row>
     <row r="5">
@@ -4751,19 +4751,19 @@
         <v>57437</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>46517</v>
+        <v>46845</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>69812</v>
+        <v>69664</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.1902877691759086</v>
+        <v>0.1902877691759085</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1541091638146546</v>
+        <v>0.1551986196199878</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2312882156180204</v>
+        <v>0.2307968165533756</v>
       </c>
     </row>
     <row r="6">
@@ -4780,19 +4780,19 @@
         <v>93297</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>81784</v>
+        <v>80443</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>107430</v>
+        <v>107492</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.309091859576742</v>
+        <v>0.3090918595767419</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.270949092845639</v>
+        <v>0.2665065282904541</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3559159253334043</v>
+        <v>0.3561194079404532</v>
       </c>
     </row>
     <row r="7">
@@ -4809,19 +4809,19 @@
         <v>95343</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>82811</v>
+        <v>82653</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>110136</v>
+        <v>111185</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>0.315871119095488</v>
+        <v>0.3158711190954879</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2743532678249857</v>
+        <v>0.2738276756461202</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3648807766135316</v>
+        <v>0.3683536078035368</v>
       </c>
     </row>
     <row r="8">
@@ -4838,19 +4838,19 @@
         <v>52086</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>40479</v>
+        <v>41186</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>63999</v>
+        <v>64239</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1725610496184503</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.134105556504293</v>
+        <v>0.1364502813952103</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2120266725877837</v>
+        <v>0.2128232216070595</v>
       </c>
     </row>
     <row r="9">
@@ -4900,19 +4900,19 @@
         <v>13842</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>8163</v>
+        <v>8383</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>20917</v>
+        <v>22124</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.04950253012741573</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.02919228437054382</v>
+        <v>0.02998170454369339</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.07480795750260603</v>
+        <v>0.07912459956942242</v>
       </c>
     </row>
     <row r="11">
@@ -4929,19 +4929,19 @@
         <v>58252</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>47460</v>
+        <v>47218</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>68736</v>
+        <v>69370</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2083318171983769</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.1697369331457086</v>
+        <v>0.1688698220185346</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2458274466519603</v>
+        <v>0.248092496778838</v>
       </c>
     </row>
     <row r="12">
@@ -4958,19 +4958,19 @@
         <v>77153</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>65352</v>
+        <v>64474</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>91923</v>
+        <v>89947</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2759292718464412</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2337252982082234</v>
+        <v>0.2305833638741395</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3287517380040399</v>
+        <v>0.3216842792012986</v>
       </c>
     </row>
     <row r="13">
@@ -4987,19 +4987,19 @@
         <v>75286</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>62146</v>
+        <v>63982</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>88456</v>
+        <v>91102</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2692508778538428</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2222594813803648</v>
+        <v>0.2288238757344513</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3163513760682395</v>
+        <v>0.3258172949279684</v>
       </c>
     </row>
     <row r="14">
@@ -5016,19 +5016,19 @@
         <v>55080</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>43944</v>
+        <v>43322</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>67416</v>
+        <v>68693</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1969855029739233</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1571620267664596</v>
+        <v>0.1549347235117735</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2411053768054409</v>
+        <v>0.245673962180369</v>
       </c>
     </row>
     <row r="15">
@@ -5078,19 +5078,19 @@
         <v>6729</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3644</v>
+        <v>3852</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11656</v>
+        <v>11812</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.06020259353614516</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.03260396941076949</v>
+        <v>0.0344664069366082</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1042894003255158</v>
+        <v>0.1056851726101864</v>
       </c>
     </row>
     <row r="17">
@@ -5107,19 +5107,19 @@
         <v>44811</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>36617</v>
+        <v>36995</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>54477</v>
+        <v>54267</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.400926378970641</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3276165037006862</v>
+        <v>0.3309976503112675</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4874060239499539</v>
+        <v>0.485524187055293</v>
       </c>
     </row>
     <row r="18">
@@ -5139,16 +5139,16 @@
         <v>24218</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>39791</v>
+        <v>40310</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2845923160289627</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2166822666259904</v>
+        <v>0.2166833775521133</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3560078191660993</v>
+        <v>0.3606584992618966</v>
       </c>
     </row>
     <row r="19">
@@ -5165,19 +5165,19 @@
         <v>15687</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>9956</v>
+        <v>10628</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>21848</v>
+        <v>22011</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1403476790507903</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08907484412475748</v>
+        <v>0.09509009255473996</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1954764773498235</v>
+        <v>0.1969333918309954</v>
       </c>
     </row>
     <row r="20">
@@ -5194,19 +5194,19 @@
         <v>12734</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7549</v>
+        <v>7621</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>18915</v>
+        <v>18945</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1139310324134608</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.06754125664618474</v>
+        <v>0.0681843378539998</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1692369165701903</v>
+        <v>0.1695038969326688</v>
       </c>
     </row>
     <row r="21">
@@ -5256,19 +5256,19 @@
         <v>47026</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>35912</v>
+        <v>36729</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59274</v>
+        <v>60023</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.08589210840352614</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0655924468874918</v>
+        <v>0.06708461652052443</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.1082639354101908</v>
+        <v>0.1096317622631558</v>
       </c>
     </row>
     <row r="23">
@@ -5285,19 +5285,19 @@
         <v>147478</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>131570</v>
+        <v>129469</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>166380</v>
+        <v>165793</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2693681573365202</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2403121577408478</v>
+        <v>0.2364739084968767</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3038927950129419</v>
+        <v>0.302819339553932</v>
       </c>
     </row>
     <row r="24">
@@ -5314,19 +5314,19 @@
         <v>167281</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>145596</v>
+        <v>150845</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>185899</v>
+        <v>188138</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.3055381903740184</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2659311296841467</v>
+        <v>0.2755170017681366</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3395430303565922</v>
+        <v>0.3436321747856518</v>
       </c>
     </row>
     <row r="25">
@@ -5343,19 +5343,19 @@
         <v>102104</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>87138</v>
+        <v>88011</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>119535</v>
+        <v>119721</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.1864928369862259</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.1591569065019171</v>
+        <v>0.1607516630389819</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2183301367525115</v>
+        <v>0.2186688015708897</v>
       </c>
     </row>
     <row r="26">
@@ -5372,19 +5372,19 @@
         <v>83608</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>70576</v>
+        <v>70674</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>99873</v>
+        <v>100832</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1527087068997095</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.128907466240118</v>
+        <v>0.1290854744742685</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.182416678183098</v>
+        <v>0.1841689885897917</v>
       </c>
     </row>
     <row r="27">
@@ -5434,19 +5434,19 @@
         <v>71728</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>58053</v>
+        <v>58894</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>86256</v>
+        <v>86048</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.130904045593622</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.1059474579318749</v>
+        <v>0.1074819799245458</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.157417055878778</v>
+        <v>0.1570367669264398</v>
       </c>
     </row>
     <row r="29">
@@ -5463,19 +5463,19 @@
         <v>207995</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>189495</v>
+        <v>189679</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>226073</v>
+        <v>226340</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.3795904067867404</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.3458284995602667</v>
+        <v>0.3461632385847042</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.4125833507948109</v>
+        <v>0.4130697373959771</v>
       </c>
     </row>
     <row r="30">
@@ -5492,19 +5492,19 @@
         <v>138062</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>121920</v>
+        <v>121383</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>155279</v>
+        <v>155629</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.251963425217147</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2225034267726503</v>
+        <v>0.221523005262343</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2833839594580018</v>
+        <v>0.2840216950194812</v>
       </c>
     </row>
     <row r="31">
@@ -5521,19 +5521,19 @@
         <v>80603</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>67385</v>
+        <v>66969</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>94726</v>
+        <v>95726</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.1470993572664218</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.1229775773640212</v>
+        <v>0.1222173867878754</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.1728755540694343</v>
+        <v>0.174699725575598</v>
       </c>
     </row>
     <row r="32">
@@ -5550,19 +5550,19 @@
         <v>49558</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>40119</v>
+        <v>40122</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>61355</v>
+        <v>61021</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.0904427651360688</v>
+        <v>0.09044276513606879</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.07321645725521347</v>
+        <v>0.07322246077712317</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.1119721948897285</v>
+        <v>0.111362525475208</v>
       </c>
     </row>
     <row r="33">
@@ -5612,19 +5612,19 @@
         <v>72752</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>61211</v>
+        <v>61293</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>88889</v>
+        <v>86691</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1480111937733725</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.1245319576179164</v>
+        <v>0.124697976119156</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.1808420438559285</v>
+        <v>0.1763706268311483</v>
       </c>
     </row>
     <row r="35">
@@ -5641,19 +5641,19 @@
         <v>207270</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>189735</v>
+        <v>189895</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>226424</v>
+        <v>226246</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.4216842341661242</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.386008000787837</v>
+        <v>0.3863351444528405</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.4606508504104415</v>
+        <v>0.4602890114361097</v>
       </c>
     </row>
     <row r="36">
@@ -5670,19 +5670,19 @@
         <v>118879</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>102597</v>
+        <v>104453</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>135291</v>
+        <v>136713</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2418546274401404</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2087298505055683</v>
+        <v>0.2125053160898872</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.2752444027744489</v>
+        <v>0.2781379431039745</v>
       </c>
     </row>
     <row r="37">
@@ -5699,19 +5699,19 @@
         <v>64637</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>52324</v>
+        <v>52683</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>79619</v>
+        <v>79427</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.1315007068009832</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.106451598443028</v>
+        <v>0.1071823143891258</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.1619821173045202</v>
+        <v>0.1615910792616048</v>
       </c>
     </row>
     <row r="38">
@@ -5728,19 +5728,19 @@
         <v>27992</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>19849</v>
+        <v>20057</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>38291</v>
+        <v>38705</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.05694923781937977</v>
+        <v>0.05694923781937978</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.04038160476071225</v>
+        <v>0.04080582088629669</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.07790229038109675</v>
+        <v>0.07874351427753561</v>
       </c>
     </row>
     <row r="39">
@@ -5790,19 +5790,19 @@
         <v>215755</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>193244</v>
+        <v>191671</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>241695</v>
+        <v>239697</v>
       </c>
       <c r="G40" s="6" t="n">
-        <v>0.09462132762047125</v>
+        <v>0.09462132762047128</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.08474906797114413</v>
+        <v>0.08405896218704881</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.1059975259594937</v>
+        <v>0.1051212409753012</v>
       </c>
     </row>
     <row r="41">
@@ -5819,19 +5819,19 @@
         <v>723244</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>684317</v>
+        <v>685231</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>756816</v>
+        <v>759423</v>
       </c>
       <c r="G41" s="6" t="n">
-        <v>0.3171849145820258</v>
+        <v>0.3171849145820259</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.300113312169647</v>
+        <v>0.3005142809462302</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.3319081430656282</v>
+        <v>0.3330515650960927</v>
       </c>
     </row>
     <row r="42">
@@ -5848,19 +5848,19 @@
         <v>626481</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>587426</v>
+        <v>588559</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>665540</v>
+        <v>665001</v>
       </c>
       <c r="G42" s="6" t="n">
-        <v>0.2747487688329991</v>
+        <v>0.2747487688329992</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2576208486785527</v>
+        <v>0.2581175849475454</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2918783249423358</v>
+        <v>0.2916421938683383</v>
       </c>
     </row>
     <row r="43">
@@ -5877,19 +5877,19 @@
         <v>433659</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>403598</v>
+        <v>403743</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>468980</v>
+        <v>469485</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.190184876235781</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.1770015930211837</v>
+        <v>0.1770649318448603</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.2056752879464195</v>
+        <v>0.2058966421084949</v>
       </c>
     </row>
     <row r="44">
@@ -5906,19 +5906,19 @@
         <v>281057</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>256471</v>
+        <v>256659</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>312387</v>
+        <v>311615</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.1232601127287228</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1124777795357625</v>
+        <v>0.1125601241627173</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1370001703682898</v>
+        <v>0.1366616030086943</v>
       </c>
     </row>
     <row r="45">
